--- a/38_Tables_2/homework/18_4.xlsx
+++ b/38_Tables_2/homework/18_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Учитель\Downloads\Обработка электронных таблиц II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\38_Tables_2\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57795687-9F0D-4D35-92F0-49CE18988969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230EB477-BF20-4D1D-8762-C522770AB0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Действия</t>
+  </si>
+  <si>
+    <t>Вправо</t>
+  </si>
+  <si>
+    <t>Вниз</t>
+  </si>
+  <si>
+    <t>из левой верхней клетки в правую нижнюю.</t>
+  </si>
+  <si>
+    <t>МАКС</t>
+  </si>
+  <si>
+    <t>МИН</t>
+  </si>
+  <si>
+    <t>сначала максимальную сумму, затем минимальную.</t>
+  </si>
+  <si>
+    <t>ТУПИКИ НЕ Учитывать</t>
+  </si>
+  <si>
+    <t>(РОБОТ РАЗРУШАЕТСЯ)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,13 +76,35 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -145,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -156,6 +210,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -436,13 +496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>13</v>
       </c>
@@ -474,7 +536,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>53</v>
       </c>
@@ -505,8 +567,14 @@
       <c r="J2" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>46</v>
       </c>
@@ -537,8 +605,11 @@
       <c r="J3" s="6">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M3" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>41</v>
       </c>
@@ -569,8 +640,11 @@
       <c r="J4" s="6">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>41</v>
       </c>
@@ -580,7 +654,7 @@
       <c r="C5" s="6">
         <v>32</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="12">
         <v>71</v>
       </c>
       <c r="E5" s="1">
@@ -601,8 +675,11 @@
       <c r="J5" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>89</v>
       </c>
@@ -612,7 +689,7 @@
       <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="13">
         <v>85</v>
       </c>
       <c r="E6" s="1">
@@ -634,7 +711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>40</v>
       </c>
@@ -644,7 +721,7 @@
       <c r="C7" s="1">
         <v>95</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="13">
         <v>40</v>
       </c>
       <c r="E7" s="1">
@@ -656,7 +733,7 @@
       <c r="G7" s="6">
         <v>42</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="12">
         <v>79</v>
       </c>
       <c r="I7" s="1">
@@ -665,8 +742,11 @@
       <c r="J7" s="6">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M7" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>98</v>
       </c>
@@ -676,7 +756,7 @@
       <c r="C8" s="1">
         <v>32</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="13">
         <v>23</v>
       </c>
       <c r="E8" s="1">
@@ -688,7 +768,7 @@
       <c r="G8" s="6">
         <v>20</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="12">
         <v>48</v>
       </c>
       <c r="I8" s="1">
@@ -698,7 +778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>96</v>
       </c>
@@ -708,7 +788,7 @@
       <c r="C9" s="1">
         <v>84</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="13">
         <v>84</v>
       </c>
       <c r="E9" s="1">
@@ -720,7 +800,7 @@
       <c r="G9" s="6">
         <v>45</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="12">
         <v>31</v>
       </c>
       <c r="I9" s="1">
@@ -729,8 +809,11 @@
       <c r="J9" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>22</v>
       </c>
@@ -740,7 +823,7 @@
       <c r="C10" s="8">
         <v>89</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="14">
         <v>86</v>
       </c>
       <c r="E10" s="8">
@@ -752,7 +835,7 @@
       <c r="G10" s="9">
         <v>100</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="15">
         <v>15</v>
       </c>
       <c r="I10" s="8">
@@ -760,6 +843,441 @@
       </c>
       <c r="J10" s="9">
         <v>81</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>1167</v>
+      </c>
+      <c r="O11">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f>A1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <f>A14+B1</f>
+        <v>38</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" ref="C14:J14" si="0">B14+C1</f>
+        <v>121</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>279</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>327</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f>A14+A2</f>
+        <v>66</v>
+      </c>
+      <c r="B15" s="1">
+        <f>MIN(B14,A15)+B2</f>
+        <v>71</v>
+      </c>
+      <c r="C15" s="1">
+        <f>MIN(C14,B15)+C2</f>
+        <v>87</v>
+      </c>
+      <c r="D15" s="1">
+        <f>MIN(D14,C15)+D2</f>
+        <v>97</v>
+      </c>
+      <c r="E15" s="1">
+        <f>MIN(E14,D15)+E2</f>
+        <v>146</v>
+      </c>
+      <c r="F15" s="1">
+        <f>MIN(F14,E15)+F2</f>
+        <v>193</v>
+      </c>
+      <c r="G15" s="1">
+        <f>MIN(G14,F15)+G2</f>
+        <v>216</v>
+      </c>
+      <c r="H15" s="1">
+        <f>MIN(H14,G15)+H2</f>
+        <v>298</v>
+      </c>
+      <c r="I15" s="1">
+        <f>MIN(I14,H15)+I2</f>
+        <v>336</v>
+      </c>
+      <c r="J15" s="1">
+        <f>MIN(J14,I15)+J2</f>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f t="shared" ref="A16:A23" si="1">A15+A3</f>
+        <v>112</v>
+      </c>
+      <c r="B16" s="1">
+        <f>MIN(B15,A16)+B3</f>
+        <v>111</v>
+      </c>
+      <c r="C16" s="1">
+        <f>MIN(C15,B16)+C3</f>
+        <v>171</v>
+      </c>
+      <c r="D16" s="1">
+        <f>MIN(D15,C16)+D3</f>
+        <v>162</v>
+      </c>
+      <c r="E16" s="1">
+        <f>MIN(E15,D16)+E3</f>
+        <v>212</v>
+      </c>
+      <c r="F16" s="1">
+        <f>MIN(F15,E16)+F3</f>
+        <v>224</v>
+      </c>
+      <c r="G16" s="1">
+        <f>MIN(G15,F16)+G3</f>
+        <v>286</v>
+      </c>
+      <c r="H16" s="1">
+        <f>MIN(H15,G16)+H3</f>
+        <v>325</v>
+      </c>
+      <c r="I16" s="1">
+        <f>MIN(I15,H16)+I3</f>
+        <v>367</v>
+      </c>
+      <c r="J16" s="1">
+        <f>MIN(J15,I16)+J3</f>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="B17" s="1">
+        <f>MIN(B16,A17)+B4</f>
+        <v>131</v>
+      </c>
+      <c r="C17" s="1">
+        <f>MIN(C16,B17)+C4</f>
+        <v>138</v>
+      </c>
+      <c r="D17" s="1">
+        <f>MIN(D16,C17)+D4</f>
+        <v>147</v>
+      </c>
+      <c r="E17" s="1">
+        <f>MIN(E16,D17)+E4</f>
+        <v>231</v>
+      </c>
+      <c r="F17" s="1">
+        <f>MIN(F16,E17)+F4</f>
+        <v>280</v>
+      </c>
+      <c r="G17" s="1">
+        <f>MIN(G16,F17)+G4</f>
+        <v>330</v>
+      </c>
+      <c r="H17" s="1">
+        <f>MIN(H16,G17)+H4</f>
+        <v>386</v>
+      </c>
+      <c r="I17" s="1">
+        <f>MIN(I16,H17)+I4</f>
+        <v>396</v>
+      </c>
+      <c r="J17" s="1">
+        <f>MIN(J16,I17)+J4</f>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="B18" s="1">
+        <f>MIN(B17,A18)+B5</f>
+        <v>176</v>
+      </c>
+      <c r="C18" s="1">
+        <f>MIN(C17,B18)+C5</f>
+        <v>170</v>
+      </c>
+      <c r="D18" s="12">
+        <f>D17+D5</f>
+        <v>218</v>
+      </c>
+      <c r="E18" s="1">
+        <f>MIN(E17,D18)+E5</f>
+        <v>315</v>
+      </c>
+      <c r="F18" s="1">
+        <f>MIN(F17,E18)+F5</f>
+        <v>352</v>
+      </c>
+      <c r="G18" s="1">
+        <f>MIN(G17,F18)+G5</f>
+        <v>384</v>
+      </c>
+      <c r="H18" s="1">
+        <f>MIN(H17,G18)+H5</f>
+        <v>454</v>
+      </c>
+      <c r="I18" s="1">
+        <f>MIN(I17,H18)+I5</f>
+        <v>400</v>
+      </c>
+      <c r="J18" s="1">
+        <f>MIN(J17,I18)+J5</f>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+      <c r="B19" s="1">
+        <f>MIN(B18,A19)+B6</f>
+        <v>211</v>
+      </c>
+      <c r="C19" s="1">
+        <f>MIN(C18,B19)+C6</f>
+        <v>175</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" ref="D19:D23" si="2">D18+D6</f>
+        <v>303</v>
+      </c>
+      <c r="E19" s="1">
+        <f>MIN(E18,D19)+E6</f>
+        <v>376</v>
+      </c>
+      <c r="F19" s="1">
+        <f>MIN(F18,E19)+F6</f>
+        <v>391</v>
+      </c>
+      <c r="G19" s="1">
+        <f>MIN(G18,F19)+G6</f>
+        <v>387</v>
+      </c>
+      <c r="H19" s="1">
+        <f>MIN(H18,G19)+H6</f>
+        <v>394</v>
+      </c>
+      <c r="I19" s="1">
+        <f>MIN(I18,H19)+I6</f>
+        <v>411</v>
+      </c>
+      <c r="J19" s="1">
+        <f>MIN(J18,I19)+J6</f>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f t="shared" si="1"/>
+        <v>323</v>
+      </c>
+      <c r="B20" s="1">
+        <f>MIN(B19,A20)+B7</f>
+        <v>255</v>
+      </c>
+      <c r="C20" s="1">
+        <f>MIN(C19,B20)+C7</f>
+        <v>270</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="2"/>
+        <v>343</v>
+      </c>
+      <c r="E20" s="1">
+        <f>MIN(E19,D20)+E7</f>
+        <v>439</v>
+      </c>
+      <c r="F20" s="1">
+        <f>MIN(F19,E20)+F7</f>
+        <v>455</v>
+      </c>
+      <c r="G20" s="1">
+        <f>MIN(G19,F20)+G7</f>
+        <v>429</v>
+      </c>
+      <c r="H20" s="12">
+        <f>H19+H7</f>
+        <v>473</v>
+      </c>
+      <c r="I20" s="1">
+        <f>MIN(I19,H20)+I7</f>
+        <v>466</v>
+      </c>
+      <c r="J20" s="1">
+        <f>MIN(J19,I20)+J7</f>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f t="shared" si="1"/>
+        <v>421</v>
+      </c>
+      <c r="B21" s="1">
+        <f>MIN(B20,A21)+B8</f>
+        <v>347</v>
+      </c>
+      <c r="C21" s="1">
+        <f>MIN(C20,B21)+C8</f>
+        <v>302</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="2"/>
+        <v>366</v>
+      </c>
+      <c r="E21" s="1">
+        <f>MIN(E20,D21)+E8</f>
+        <v>401</v>
+      </c>
+      <c r="F21" s="1">
+        <f>MIN(F20,E21)+F8</f>
+        <v>452</v>
+      </c>
+      <c r="G21" s="1">
+        <f>MIN(G20,F21)+G8</f>
+        <v>449</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" ref="H21:H23" si="3">H20+H8</f>
+        <v>521</v>
+      </c>
+      <c r="I21" s="1">
+        <f>MIN(I20,H21)+I8</f>
+        <v>530</v>
+      </c>
+      <c r="J21" s="1">
+        <f>MIN(J20,I21)+J8</f>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f t="shared" si="1"/>
+        <v>517</v>
+      </c>
+      <c r="B22" s="1">
+        <f>MIN(B21,A22)+B9</f>
+        <v>364</v>
+      </c>
+      <c r="C22" s="1">
+        <f>MIN(C21,B22)+C9</f>
+        <v>386</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="E22" s="1">
+        <f>MIN(E21,D22)+E9</f>
+        <v>426</v>
+      </c>
+      <c r="F22" s="1">
+        <f>MIN(F21,E22)+F9</f>
+        <v>467</v>
+      </c>
+      <c r="G22" s="1">
+        <f>MIN(G21,F22)+G9</f>
+        <v>494</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="3"/>
+        <v>552</v>
+      </c>
+      <c r="I22" s="1">
+        <f>MIN(I21,H22)+I9</f>
+        <v>621</v>
+      </c>
+      <c r="J22" s="1">
+        <f>MIN(J21,I22)+J9</f>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f t="shared" si="1"/>
+        <v>539</v>
+      </c>
+      <c r="B23" s="1">
+        <f>MIN(B22,A23)+B10</f>
+        <v>445</v>
+      </c>
+      <c r="C23" s="1">
+        <f>MIN(C22,B23)+C10</f>
+        <v>475</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="2"/>
+        <v>536</v>
+      </c>
+      <c r="E23" s="1">
+        <f>MIN(E22,D23)+E10</f>
+        <v>522</v>
+      </c>
+      <c r="F23" s="1">
+        <f>MIN(F22,E23)+F10</f>
+        <v>560</v>
+      </c>
+      <c r="G23" s="1">
+        <f>MIN(G22,F23)+G10</f>
+        <v>594</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="3"/>
+        <v>567</v>
+      </c>
+      <c r="I23" s="1">
+        <f>MIN(I22,H23)+I10</f>
+        <v>570</v>
+      </c>
+      <c r="J23" s="1">
+        <f>MIN(J22,I23)+J10</f>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
